--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_9_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_9_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.05269382579805182, 13.728806008892185]</t>
+          <t>[0.16820465324541445, 13.613295181444823]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04833307064345393</v>
+        <v>0.04476261793504355</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04833307064345393</v>
+        <v>0.04476261793504355</v>
       </c>
       <c r="P2" t="n">
         <v>-1.597526594618233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.880579450138389, -0.3144737390980774]</t>
+          <t>[-2.943474197958004, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.01582552811517934</v>
+        <v>0.02106787524876497</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01582552811517934</v>
+        <v>0.02106787524876497</v>
       </c>
       <c r="T2" t="n">
         <v>9.190352697774575</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.178723759253849, 13.2019816362953]</t>
+          <t>[5.179046595938832, 13.201658799610318]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.283989409053056e-05</v>
+        <v>3.280012332829152e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.283989409053056e-05</v>
+        <v>3.280012332829152e-05</v>
       </c>
       <c r="X2" t="n">
         <v>6.572472472472626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.293793793793825</v>
+        <v>1.035035035035062</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.85115115115143</v>
+        <v>12.10990990991019</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.23805925525822502, 13.596127409212276]</t>
+          <t>[-0.3520125859853618, 13.710080739939412]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.05806622028694752</v>
+        <v>0.06208910788380839</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05806622028694752</v>
+        <v>0.06208910788380839</v>
       </c>
       <c r="P3" t="n">
         <v>-1.698158191129618</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.132158441416851, -0.2641579408423853]</t>
+          <t>[-3.144737390980774, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02134596459990834</v>
+        <v>0.02243492632858546</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02134596459990834</v>
+        <v>0.02243492632858546</v>
       </c>
       <c r="T3" t="n">
         <v>9.063473223588375</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.0721465885173975, 13.05479985865935]</t>
+          <t>[5.072917063133222, 13.054029384043528]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.748026636651858e-05</v>
+        <v>3.737269203885063e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>3.748026636651858e-05</v>
+        <v>3.737269203885063e-05</v>
       </c>
       <c r="X3" t="n">
         <v>6.986486486486651</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.086786786786814</v>
+        <v>1.035035035035062</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.88618618618649</v>
+        <v>12.93793793793824</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.463379560165805, 14.775197272474848]</t>
+          <t>[-1.7818358605128033, 15.093653572821847]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1056827672514751</v>
+        <v>0.1191131247534338</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1056827672514751</v>
+        <v>0.1191131247534338</v>
       </c>
       <c r="P4" t="n">
         <v>-2.075526678047311</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.220237578696199, 0.06918422260157797]</t>
+          <t>[-4.207658629132275, 0.05660527303765317]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.05752942186815679</v>
+        <v>0.05612975575749246</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05752942186815679</v>
+        <v>0.05612975575749246</v>
       </c>
       <c r="T4" t="n">
         <v>10.03330633164286</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.656572851137536, 14.410039812148181]</t>
+          <t>[5.6556041125666665, 14.41100855071905]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.251964526418405e-05</v>
+        <v>3.262826343863878e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.251964526418405e-05</v>
+        <v>3.262826343863878e-05</v>
       </c>
       <c r="X4" t="n">
         <v>8.539039039039238</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.284634634634644</v>
+        <v>-0.2328828828828851</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.36271271271312</v>
+        <v>17.31096096096136</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.0399747241906407, 14.582648231483592]</t>
+          <t>[-1.1135596456013062, 14.656233152894258]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08764380947007644</v>
+        <v>0.09054614305422826</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08764380947007644</v>
+        <v>0.09054614305422826</v>
       </c>
       <c r="P5" t="n">
         <v>-2.465474114528927</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.258000917719853, 0.32705268866199955]</t>
+          <t>[-5.346053564667316, 0.4151053356094625]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08212517332869251</v>
+        <v>0.09159769800753392</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08212517332869251</v>
+        <v>0.09159769800753392</v>
       </c>
       <c r="T5" t="n">
         <v>8.811885915799493</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.787518187177903, 12.836253644421085]</t>
+          <t>[4.7925607956322605, 12.831211035966726]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.362532214909677e-05</v>
+        <v>6.250185303646738e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.362532214909677e-05</v>
+        <v>6.250185303646738e-05</v>
       </c>
       <c r="X5" t="n">
         <v>10.14334334334358</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.345545545545574</v>
+        <v>-1.707807807807848</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.63223223223273</v>
+        <v>21.99449449449501</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.074346806589066, 14.125139646344422]</t>
+          <t>[0.08931264229155111, 14.110173810641937]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0477232914833392</v>
+        <v>0.04727036835786658</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0477232914833392</v>
+        <v>0.04727036835786658</v>
       </c>
       <c r="P6" t="n">
         <v>-2.868000500574466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.352316549117392, -1.3836844520315403]</t>
+          <t>[-4.364895498681314, -1.3711055024676182]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0003262070135807704</v>
+        <v>0.0003606969223073353</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0003262070135807704</v>
+        <v>0.0003606969223073353</v>
       </c>
       <c r="T6" t="n">
         <v>9.168733230271526</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.184790499373451, 13.152675961169601]</t>
+          <t>[5.188586629174342, 13.14887983136871]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.06499357494161e-05</v>
+        <v>3.021033159988917e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>3.06499357494161e-05</v>
+        <v>3.021033159988917e-05</v>
       </c>
       <c r="X6" t="n">
         <v>10.39807807807814</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.016616616616645</v>
+        <v>4.971011011011043</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.77953953953963</v>
+        <v>15.82514514514523</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.07436157843367575, 14.346864346395513]</t>
+          <t>[-0.31174202527005335, 14.732967950099242]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.04775752112809162</v>
+        <v>0.05984380628795671</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04775752112809162</v>
+        <v>0.05984380628795671</v>
       </c>
       <c r="P7" t="n">
         <v>-2.792526803190928</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.201369154350314, -1.3836844520315408]</t>
+          <t>[-4.302000750861699, -1.2830528555201566]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0002389681632484209</v>
+        <v>0.0005406574194140035</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002389681632484209</v>
+        <v>0.0005406574194140035</v>
       </c>
       <c r="T7" t="n">
         <v>9.162085332192246</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.194153728337451, 13.130016936047042]</t>
+          <t>[5.196254053252073, 13.12791661113242]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.915193335661925e-05</v>
+        <v>2.891804873694781e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.915193335661925e-05</v>
+        <v>2.891804873694781e-05</v>
       </c>
       <c r="X7" t="n">
         <v>10.1244444444445</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.016616616616646</v>
+        <v>4.6517717717718</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.23227227227236</v>
+        <v>15.5971171171172</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.13521984117386587, 14.541868066876942]</t>
+          <t>[-0.21137966618823256, 14.618027891891309]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0541890253802666</v>
+        <v>0.05660679209161268</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0541890253802666</v>
+        <v>0.05660679209161268</v>
       </c>
       <c r="P8" t="n">
         <v>-2.138421425866927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.836579616996545, -0.44026323473730855]</t>
+          <t>[-3.962369112635776, -0.3144737390980774]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0147436544706987</v>
+        <v>0.02259756870124141</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0147436544706987</v>
+        <v>0.02259756870124141</v>
       </c>
       <c r="T8" t="n">
         <v>8.996564681740532</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.008474390669902, 12.98465497281116]</t>
+          <t>[5.009910123778655, 12.983219239702407]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.133150392515716e-05</v>
+        <v>4.111237131176892e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.133150392515716e-05</v>
+        <v>4.111237131176892e-05</v>
       </c>
       <c r="X8" t="n">
         <v>7.752952952952995</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.596196196196204</v>
+        <v>1.140140140140145</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.90970970970979</v>
+        <v>14.36576576576585</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.6045050568522665, 14.738699430958773]</t>
+          <t>[-0.45386810048483284, 14.58806247459134]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07009692428227332</v>
+        <v>0.06485994897373826</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07009692428227332</v>
+        <v>0.06485994897373826</v>
       </c>
       <c r="P9" t="n">
         <v>-2.062947728483388</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.798842768304775, -0.32705268866200043]</t>
+          <t>[-3.89947436481616, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02091612142210186</v>
+        <v>0.02854745622337251</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02091612142210186</v>
+        <v>0.02854745622337251</v>
       </c>
       <c r="T9" t="n">
         <v>8.969331998878538</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.963808694230147, 12.974855303526928]</t>
+          <t>[4.965439649399997, 12.973224348357078]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.607317774918407e-05</v>
+        <v>4.579960710593411e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.607317774918407e-05</v>
+        <v>4.579960710593411e-05</v>
       </c>
       <c r="X9" t="n">
         <v>7.479319319319359</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.185745745745751</v>
+        <v>0.8209009009009032</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.77289289289297</v>
+        <v>14.13773773773782</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.132663088859708, 15.040601703742686]</t>
+          <t>[0.0924782028511082, 15.080786589751286]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04622317786402896</v>
+        <v>0.04735404460824433</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04622317786402896</v>
+        <v>0.04735404460824433</v>
       </c>
       <c r="P10" t="n">
         <v>-1.220158107700541</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.742211004935235, 0.30189478953415394]</t>
+          <t>[-2.666737307551696, 0.2264210921506149]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1133858257098832</v>
+        <v>0.09625166952444952</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1133858257098832</v>
+        <v>0.09625166952444952</v>
       </c>
       <c r="T10" t="n">
         <v>9.477270675463162</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.325580998013113, 13.62896035291321]</t>
+          <t>[5.323763774923859, 13.630777576002465]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.46522320961995e-05</v>
+        <v>3.488018817887628e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.46522320961995e-05</v>
+        <v>3.488018817887628e-05</v>
       </c>
       <c r="X10" t="n">
         <v>4.423743743743771</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.094534534534537</v>
+        <v>-0.8209009009009005</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.942022022022078</v>
+        <v>9.668388388388442</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_9_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_9_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.16820465324541445, 13.613295181444823]</t>
+          <t>[0.26368456358824055, 13.517815271101997]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04476261793504355</v>
+        <v>0.04190126049468579</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04476261793504355</v>
+        <v>0.04190126049468579</v>
       </c>
       <c r="P2" t="n">
         <v>-1.597526594618233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.943474197958004, -0.2515789912784623]</t>
+          <t>[-2.905737349266235, -0.28931583997023136]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.02106787524876497</v>
+        <v>0.01781996298824517</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02106787524876497</v>
+        <v>0.01781996298824517</v>
       </c>
       <c r="T2" t="n">
         <v>9.190352697774575</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.179046595938832, 13.201658799610318]</t>
+          <t>[5.177129290124466, 13.203576105424684]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.280012332829152e-05</v>
+        <v>3.30369198182634e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.280012332829152e-05</v>
+        <v>3.30369198182634e-05</v>
       </c>
       <c r="X2" t="n">
         <v>6.572472472472626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.035035035035062</v>
+        <v>1.190290290290319</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.10990990991019</v>
+        <v>11.95465465465493</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.3520125859853618, 13.710080739939412]</t>
+          <t>[-0.2025382110240379, 13.560606364978089]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06208910788380839</v>
+        <v>0.05683289445280315</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06208910788380839</v>
+        <v>0.05683289445280315</v>
       </c>
       <c r="P3" t="n">
         <v>-1.698158191129618</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.144737390980774, -0.2515789912784623]</t>
+          <t>[-3.119579491852928, -0.27673689040630833]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02243492632858546</v>
+        <v>0.02028679815121737</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02243492632858546</v>
+        <v>0.02028679815121737</v>
       </c>
       <c r="T3" t="n">
         <v>9.063473223588375</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.072917063133222, 13.054029384043528]</t>
+          <t>[5.072674193793906, 13.054272253382843]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.737269203885063e-05</v>
+        <v>3.740657342743425e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>3.737269203885063e-05</v>
+        <v>3.740657342743425e-05</v>
       </c>
       <c r="X3" t="n">
         <v>6.986486486486651</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.035035035035062</v>
+        <v>1.138538538538567</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.93793793793824</v>
+        <v>12.83443443443474</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.7818358605128033, 15.093653572821847]</t>
+          <t>[-1.5879280357400756, 14.899745748049119]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1191131247534338</v>
+        <v>0.1109021322900356</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1191131247534338</v>
+        <v>0.1109021322900356</v>
       </c>
       <c r="P4" t="n">
         <v>-2.075526678047311</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.207658629132275, 0.05660527303765317]</t>
+          <t>[-4.421500771718968, 0.2704474156243464]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.05612975575749246</v>
+        <v>0.08151183570366549</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05612975575749246</v>
+        <v>0.08151183570366549</v>
       </c>
       <c r="T4" t="n">
         <v>10.03330633164286</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.6556041125666665, 14.41100855071905]</t>
+          <t>[5.655930769525751, 14.410681893759966]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.262826343863878e-05</v>
+        <v>3.259160323221266e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.262826343863878e-05</v>
+        <v>3.259160323221266e-05</v>
       </c>
       <c r="X4" t="n">
         <v>8.539039039039238</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.2328828828828851</v>
+        <v>-1.112662662662688</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.31096096096136</v>
+        <v>18.19074074074116</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.1135596456013062, 14.656233152894258]</t>
+          <t>[-0.9315846076339938, 14.474258114926945]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.09054614305422826</v>
+        <v>0.08341464587362468</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09054614305422826</v>
+        <v>0.08341464587362468</v>
       </c>
       <c r="P5" t="n">
         <v>-2.465474114528927</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.346053564667316, 0.4151053356094625]</t>
+          <t>[-5.559895707254008, 0.6289474781961548]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.09159769800753392</v>
+        <v>0.1155488017065576</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09159769800753392</v>
+        <v>0.1155488017065576</v>
       </c>
       <c r="T5" t="n">
         <v>8.811885915799493</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.7925607956322605, 12.831211035966726]</t>
+          <t>[4.789448388791072, 12.834323442807914]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.250185303646738e-05</v>
+        <v>6.319330241666421e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.250185303646738e-05</v>
+        <v>6.319330241666421e-05</v>
       </c>
       <c r="X5" t="n">
         <v>10.14334334334358</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.707807807807848</v>
+        <v>-2.587587587587647</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.99449449449501</v>
+        <v>22.8742742742748</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.08931264229155111, 14.110173810641937]</t>
+          <t>[0.14758682632656317, 14.051899626606925]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.04727036835786658</v>
+        <v>0.04552427771284995</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04727036835786658</v>
+        <v>0.04552427771284995</v>
       </c>
       <c r="P6" t="n">
         <v>-2.868000500574466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.364895498681314, -1.3711055024676182]</t>
+          <t>[-4.339737599553468, -1.3962634015954642]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0003606969223073353</v>
+        <v>0.0002944071482542387</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0003606969223073353</v>
+        <v>0.0002944071482542387</v>
       </c>
       <c r="T6" t="n">
         <v>9.168733230271526</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.188586629174342, 13.14887983136871]</t>
+          <t>[5.187944839663137, 13.149521620879915]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.021033159988917e-05</v>
+        <v>3.028427431872593e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>3.021033159988917e-05</v>
+        <v>3.028427431872593e-05</v>
       </c>
       <c r="X6" t="n">
         <v>10.39807807807814</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.971011011011043</v>
+        <v>5.062222222222253</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.82514514514523</v>
+        <v>15.73393393393402</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.31174202527005335, 14.732967950099242]</t>
+          <t>[-0.1054094163941901, 14.526635341223379]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.05984380628795671</v>
+        <v>0.0532506083067168</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05984380628795671</v>
+        <v>0.0532506083067168</v>
       </c>
       <c r="P7" t="n">
         <v>-2.792526803190928</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.302000750861699, -1.2830528555201566]</t>
+          <t>[-4.2391060030420835, -1.3459476033397717]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0005406574194140035</v>
+        <v>0.0003298032128504769</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0005406574194140035</v>
+        <v>0.0003298032128504769</v>
       </c>
       <c r="T7" t="n">
         <v>9.162085332192246</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.196254053252073, 13.12791661113242]</t>
+          <t>[5.191744643984343, 13.13242602040015]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.891804873694781e-05</v>
+        <v>2.942217895918198e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.891804873694781e-05</v>
+        <v>2.942217895918198e-05</v>
       </c>
       <c r="X7" t="n">
         <v>10.1244444444445</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.6517717717718</v>
+        <v>4.879799799799829</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5971171171172</v>
+        <v>15.36908908908917</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.21137966618823256, 14.618027891891309]</t>
+          <t>[-0.4784590100410586, 14.885107235744135]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.05660679209161268</v>
+        <v>0.06539383012790068</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05660679209161268</v>
+        <v>0.06539383012790068</v>
       </c>
       <c r="P8" t="n">
         <v>-2.138421425866927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.962369112635776, -0.3144737390980774]</t>
+          <t>[-3.987527011763622, -0.28931583997023136]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02259756870124141</v>
+        <v>0.02439468613120233</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02259756870124141</v>
+        <v>0.02439468613120233</v>
       </c>
       <c r="T8" t="n">
         <v>8.996564681740532</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.009910123778655, 12.983219239702407]</t>
+          <t>[5.008762319239474, 12.98436704424159]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.111237131176892e-05</v>
+        <v>4.128747915532749e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.111237131176892e-05</v>
+        <v>4.128747915532749e-05</v>
       </c>
       <c r="X8" t="n">
         <v>7.752952952952995</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.140140140140145</v>
+        <v>1.048928928928934</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.36576576576585</v>
+        <v>14.45697697697706</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.45386810048483284, 14.58806247459134]</t>
+          <t>[-0.5569691085242816, 14.691163482630788]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06485994897373826</v>
+        <v>0.06842947911198505</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06485994897373826</v>
+        <v>0.06842947911198505</v>
       </c>
       <c r="P9" t="n">
         <v>-2.062947728483388</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.89947436481616, -0.22642109215061534]</t>
+          <t>[-3.86173751612439, -0.2641579408423853]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02854745622337251</v>
+        <v>0.02553812672550904</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02854745622337251</v>
+        <v>0.02553812672550904</v>
       </c>
       <c r="T9" t="n">
         <v>8.969331998878538</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.965439649399997, 12.973224348357078]</t>
+          <t>[4.963976385994307, 12.974687611762768]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.579960710593411e-05</v>
+        <v>4.604498636329168e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.579960710593411e-05</v>
+        <v>4.604498636329168e-05</v>
       </c>
       <c r="X9" t="n">
         <v>7.479319319319359</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8209009009009032</v>
+        <v>0.9577177177177241</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.13773773773782</v>
+        <v>14.00092092092099</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.0924782028511082, 15.080786589751286]</t>
+          <t>[-0.1386551781497687, 15.311919970752163]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04735404460824433</v>
+        <v>0.05407670088395777</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04735404460824433</v>
+        <v>0.05407670088395777</v>
       </c>
       <c r="P10" t="n">
         <v>-1.220158107700541</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.666737307551696, 0.2264210921506149]</t>
+          <t>[-2.742211004935235, 0.30189478953415394]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.09625166952444952</v>
+        <v>0.1133858257098832</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09625166952444952</v>
+        <v>0.1133858257098832</v>
       </c>
       <c r="T10" t="n">
         <v>9.477270675463162</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.323763774923859, 13.630777576002465]</t>
+          <t>[5.324900937830361, 13.629640413095963]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.488018817887628e-05</v>
+        <v>3.473739191006686e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.488018817887628e-05</v>
+        <v>3.473739191006686e-05</v>
       </c>
       <c r="X10" t="n">
         <v>4.423743743743771</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.8209009009009005</v>
+        <v>-1.094534534534537</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.668388388388442</v>
+        <v>9.942022022022078</v>
       </c>
     </row>
   </sheetData>
